--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3477679.798238555</v>
+        <v>3475427.718527349</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>190.0430581580016</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -710,16 +710,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>60.03388914270838</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247811</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414557</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>114.3606976213227</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>234.0551139506824</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>16.61609021060003</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>254.2178238930285</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>150.4026958753531</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>148.434892503107</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>300.8918795406385</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.5398680316079</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>88.89700561060579</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.28185552386351</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576184</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>240.737700564652</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187887</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.040488224226</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>246.4755938422912</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788180381</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428257</v>
+        <v>126.9927435506632</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>7.61374123523283</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412173</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532352</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428166</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730835</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1767.878520285689</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="C2" t="n">
-        <v>1398.916003345278</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D2" t="n">
-        <v>1398.916003345278</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1013.127750747033</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792695</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2531.483610522581</v>
+        <v>2364.103749387412</v>
       </c>
       <c r="X2" t="n">
-        <v>2158.017852261501</v>
+        <v>1990.637991126332</v>
       </c>
       <c r="Y2" t="n">
-        <v>1767.878520285689</v>
+        <v>1600.49865915052</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4434,19 +4434,19 @@
         <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
         <v>66.51211643218342</v>
@@ -4513,25 +4513,25 @@
         <v>920.8870058181855</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181855</v>
+        <v>805.3711496350312</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181855</v>
+        <v>583.6045342045572</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181855</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="V4" t="n">
-        <v>684.4676987972941</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W4" t="n">
-        <v>395.0505287603335</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X4" t="n">
-        <v>395.0505287603335</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y4" t="n">
-        <v>395.0505287603335</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2144.883770458459</v>
+        <v>1274.53911114974</v>
       </c>
       <c r="C5" t="n">
-        <v>1775.921253518047</v>
+        <v>905.5765942093287</v>
       </c>
       <c r="D5" t="n">
-        <v>1417.655554911297</v>
+        <v>547.3108956025783</v>
       </c>
       <c r="E5" t="n">
-        <v>1031.867302313053</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>620.881397523445</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
@@ -4577,7 +4577,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522581</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X5" t="n">
-        <v>2531.483610522581</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y5" t="n">
-        <v>2531.483610522581</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>831.0565485757129</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4747,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757129</v>
+        <v>770.9527709665616</v>
       </c>
       <c r="T7" t="n">
-        <v>831.0565485757129</v>
+        <v>549.1861555360877</v>
       </c>
       <c r="U7" t="n">
-        <v>831.0565485757129</v>
+        <v>549.1861555360877</v>
       </c>
       <c r="V7" t="n">
-        <v>831.0565485757129</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W7" t="n">
-        <v>831.0565485757129</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X7" t="n">
-        <v>831.0565485757129</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y7" t="n">
-        <v>831.0565485757129</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1921.870414581993</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1921.870414581993</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4799,22 +4799,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4826,28 +4826,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3072.075344883006</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>3072.075344883006</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2698.609586621927</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>2308.470254646115</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,34 +4936,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124868</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -4993,19 +4993,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>156.3070715944115</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191926</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349515</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061504</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.043492616111</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.355259300789</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2495.978408795857</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>559.759432886125</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>390.823249958218</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>240.7066105458823</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458823</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797193</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797193</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1734.29168600076</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1479.607197794873</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1190.190027757912</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>962.2004768598948</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>741.4078977163647</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832229</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134626</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5492,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,37 +5525,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468473</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5741,31 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5832,22 +5832,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191926</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349515</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061504</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.043492616111</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2148.043492616111</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400721</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121652</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121652</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121652</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121652</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270452</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703119</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192508</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6069,25 +6069,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,16 +6212,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6233,10 +6233,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6361,19 +6361,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,10 +6458,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6549,19 +6549,19 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6664,7 +6664,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,10 +6695,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6783,22 +6783,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597619</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>411.9631215597619</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>244.7670222746419</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,13 +7008,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
         <v>427.7414352191925</v>
@@ -7026,16 +7026,16 @@
         <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>606.6423399580283</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>459.7523924601179</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,19 +7309,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>282.1326295060853</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4207983482833</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7612,7 +7612,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7649,7 +7649,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23431,10 +23431,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>45.44677382459216</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.2063328744018</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>39.70888054695297</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194129</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.00531331087754</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903367</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>35.12774237125718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>680534.5999045508</v>
+        <v>680534.5999045506</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>680534.5999045507</v>
+        <v>680534.5999045506</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>680534.5999045506</v>
+        <v>680534.5999045507</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>680534.5999045506</v>
+        <v>680534.5999045507</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>680534.5999045506</v>
+        <v>680534.5999045507</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="C2" t="n">
         <v>759463.6371244622</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="F2" t="n">
         <v>746610.6047132555</v>
       </c>
-      <c r="F2" t="n">
-        <v>746610.6047132557</v>
-      </c>
       <c r="G2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="H2" t="n">
-        <v>746610.6047132557</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="I2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="K2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="L2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="M2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.604713255</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073558</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355121</v>
+        <v>85055.02793551169</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687956</v>
+        <v>15436.6400068797</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687957</v>
+        <v>15436.64000687973</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687965</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="H4" t="n">
         <v>15436.64000687967</v>
@@ -26439,25 +26439,25 @@
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15436.64000687969</v>
+      </c>
+      <c r="L4" t="n">
+        <v>15436.64000687969</v>
+      </c>
+      <c r="M4" t="n">
+        <v>15436.64000687973</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15436.64000687969</v>
+      </c>
+      <c r="O4" t="n">
         <v>15436.64000687966</v>
       </c>
-      <c r="K4" t="n">
-        <v>15436.64000687968</v>
-      </c>
-      <c r="L4" t="n">
-        <v>15436.64000687965</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15436.64000687962</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="O4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="P4" t="n">
-        <v>15436.64000687966</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-770811.7932685764</v>
+        <v>-770811.7932685765</v>
       </c>
       <c r="C6" t="n">
         <v>557932.9524590166</v>
       </c>
       <c r="D6" t="n">
-        <v>557932.9524590165</v>
+        <v>557932.9524590166</v>
       </c>
       <c r="E6" t="n">
-        <v>304638.973075113</v>
+        <v>304604.2351496779</v>
       </c>
       <c r="F6" t="n">
-        <v>630051.4348824689</v>
+        <v>630016.6969570329</v>
       </c>
       <c r="G6" t="n">
-        <v>630051.4348824685</v>
+        <v>630016.696957033</v>
       </c>
       <c r="H6" t="n">
-        <v>630051.4348824688</v>
+        <v>630016.6969570328</v>
       </c>
       <c r="I6" t="n">
-        <v>630051.4348824687</v>
+        <v>630016.6969570331</v>
       </c>
       <c r="J6" t="n">
-        <v>412520.2324851911</v>
+        <v>412485.4945597552</v>
       </c>
       <c r="K6" t="n">
-        <v>630051.4348824684</v>
+        <v>630016.6969570328</v>
       </c>
       <c r="L6" t="n">
-        <v>630051.4348824684</v>
+        <v>630016.696957033</v>
       </c>
       <c r="M6" t="n">
-        <v>544996.4069469564</v>
+        <v>544961.6690215211</v>
       </c>
       <c r="N6" t="n">
-        <v>630051.4348824687</v>
+        <v>630016.6969570328</v>
       </c>
       <c r="O6" t="n">
-        <v>630051.4348824688</v>
+        <v>630016.6969570325</v>
       </c>
       <c r="P6" t="n">
-        <v>630051.4348824683</v>
+        <v>630016.6969570328</v>
       </c>
     </row>
   </sheetData>
@@ -26793,16 +26793,16 @@
         <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973565</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973568</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973565</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>216.8329875837099</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,16 +27430,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>289.2070795747046</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27585,22 +27585,22 @@
         <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>75.4083277101192</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>18.0825293731456</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>365.3142798616618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>156.7039017604249</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>16.84412522327472</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>41.33413282833487</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>53.7911620800445</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.1912326468612</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>90.93497457133151</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28065,10 +28065,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.3027978282313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-4.688052295361615e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.084623711536609e-13</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,10 +28576,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31601,7 +31601,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31613,7 +31613,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319844</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>160.6314956130967</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,22 +32078,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565758</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>164.9290651940682</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>543.0832917018702</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32956,7 +32956,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
         <v>926.5868626460027</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33898,7 +33898,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,7 +34214,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,7 +34463,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35261,7 +35261,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875399</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>20.64972152707519</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121313</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>22.33282074962379</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>409.1088842875399</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36604,7 +36604,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,7 +37862,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,7 +38111,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
